--- a/target/classes/testData.xlsx
+++ b/target/classes/testData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davis\IdeaProjects\demoWebShop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F8B3EC-8C3D-4084-B6AC-D40DD37A0270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5F9FDF-E07F-4794-9B74-DC8C39D7679D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +26,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>title</t>
   </si>
   <si>
     <t>Demo Web Shop</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>selenium121@test.com</t>
+  </si>
+  <si>
+    <t>selenium111@test.com</t>
+  </si>
+  <si>
+    <t>selenium222@test.com</t>
   </si>
 </sst>
 </file>
@@ -350,7 +366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -372,4 +388,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB85EF5-DCE5-4BFE-8125-7108D6479527}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>12345678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>